--- a/src/modules/ARDUINO/Capteur/Mesures.xlsx
+++ b/src/modules/ARDUINO/Capteur/Mesures.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{863FC27E-8B56-4A7B-9E11-9CF2E0412CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{794BF896-B393-42DB-B320-9A83C8CDE6C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{794BF896-B393-42DB-B320-9A83C8CDE6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -2314,13 +2314,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B731E336-5109-4740-9BC2-A209ACB53653}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>60</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.5</v>
       </c>
